--- a/data/trans_dic/ProbViv_estruc-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05864813678097415</v>
+        <v>0.06017593082807425</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04721784567866348</v>
+        <v>0.04878784121534042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0598103959043718</v>
+        <v>0.06133042048401476</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1109240543309998</v>
+        <v>0.1104029391407672</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09266644213752555</v>
+        <v>0.09201572683147603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09583325694912521</v>
+        <v>0.09644974643049763</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07299352516448085</v>
+        <v>0.07299352516448086</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.06517611559892168</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05300533642739804</v>
+        <v>0.05150683613486843</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04450582249337491</v>
+        <v>0.04593229963196158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05509048307938907</v>
+        <v>0.05523300532016551</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1007183859854585</v>
+        <v>0.100471682425631</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08867676789915033</v>
+        <v>0.08934814547271053</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08586383514988299</v>
+        <v>0.08930207782318558</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08834894668700623</v>
+        <v>0.08834894668700624</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.09806118986739833</v>
+        <v>0.09806118986739834</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.0911157180977674</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06542042748826322</v>
+        <v>0.06411921389238052</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06413308843282775</v>
+        <v>0.0645279810803165</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07157373014185753</v>
+        <v>0.07298890678700397</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1157478794105226</v>
+        <v>0.1152353841792013</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1395257759561119</v>
+        <v>0.1396414594919543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1130042027537653</v>
+        <v>0.1148510341781582</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08941456564393156</v>
+        <v>0.08941456564393155</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09958473675035048</v>
+        <v>0.09958473675035047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.09380430967951064</v>
+        <v>0.09380430967951066</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07286762838921318</v>
+        <v>0.07278683313428408</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0813542479877023</v>
+        <v>0.08010180287481934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08124613420785243</v>
+        <v>0.08060625476941019</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1104865829747372</v>
+        <v>0.1117424725546649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1172540565529031</v>
+        <v>0.1179458537839371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1080120767592793</v>
+        <v>0.1073507446362975</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1497079466339048</v>
+        <v>0.1454661276130139</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1235482943372381</v>
+        <v>0.1218443982874029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1403963042741139</v>
+        <v>0.1406851843959595</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2147422928001845</v>
+        <v>0.2163243110951086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1669900768889923</v>
+        <v>0.165296743555689</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.17940055007503</v>
+        <v>0.1808246835692973</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.06581216408006238</v>
+        <v>0.06581216408006239</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.1087731402329489</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09934449786444373</v>
+        <v>0.0993444978644437</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02584247344645882</v>
+        <v>0.02546241009131217</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08682564028335454</v>
+        <v>0.08896344177507749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08051033689515769</v>
+        <v>0.08223131007537761</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.132955816700861</v>
+        <v>0.1303840671876847</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1290363027842184</v>
+        <v>0.1318712321459485</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.120373306152467</v>
+        <v>0.1201083566403287</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08865168461913761</v>
+        <v>0.08873376624045093</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09370343041947424</v>
+        <v>0.09441995298680041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09417502266725576</v>
+        <v>0.09430832043553584</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1105839867951438</v>
+        <v>0.1119370543795624</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1122338643543778</v>
+        <v>0.1125974263038206</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1097625324712483</v>
+        <v>0.1088214338223793</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32293</v>
+        <v>33134</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22994</v>
+        <v>23759</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>62059</v>
+        <v>63636</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61077</v>
+        <v>60790</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45127</v>
+        <v>44810</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>99436</v>
+        <v>100076</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25613</v>
+        <v>24889</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18832</v>
+        <v>19436</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49932</v>
+        <v>50061</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48668</v>
+        <v>48549</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37523</v>
+        <v>37807</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77823</v>
+        <v>80939</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30792</v>
+        <v>30179</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12025</v>
+        <v>12099</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47108</v>
+        <v>48039</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54480</v>
+        <v>54239</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26161</v>
+        <v>26182</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>74377</v>
+        <v>75592</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>82475</v>
+        <v>82383</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69927</v>
+        <v>68851</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>161792</v>
+        <v>160518</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>125053</v>
+        <v>126475</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>100784</v>
+        <v>101379</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>215093</v>
+        <v>213776</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>85029</v>
+        <v>82620</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>102650</v>
+        <v>101234</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>196388</v>
+        <v>196792</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>121966</v>
+        <v>122864</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>138744</v>
+        <v>137337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>250948</v>
+        <v>252940</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6131</v>
+        <v>6040</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>73253</v>
+        <v>75057</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>87025</v>
+        <v>88885</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>31541</v>
+        <v>30931</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>108866</v>
+        <v>111258</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>130113</v>
+        <v>129827</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>305098</v>
+        <v>305381</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>340302</v>
+        <v>342904</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>666122</v>
+        <v>667065</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>380579</v>
+        <v>385236</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>407599</v>
+        <v>408919</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>776376</v>
+        <v>769719</v>
       </c>
     </row>
     <row r="32">
